--- a/AdultIncome/Performance_metrics/model_perf_metrics_mean_of_iterations_LR_Traning_on_X_fit.xlsx
+++ b/AdultIncome/Performance_metrics/model_perf_metrics_mean_of_iterations_LR_Traning_on_X_fit.xlsx
@@ -502,16 +502,16 @@
         <v>27133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999031529676498</v>
+        <v>0.9994040968309581</v>
       </c>
       <c r="H2" t="n">
-        <v>7.428e-05</v>
+        <v>4e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9992318107235192</v>
+        <v>0.9995291906089616</v>
       </c>
       <c r="J2" t="n">
-        <v>2.55e-05</v>
+        <v>2.499e-05</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         <v>27133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5966478564810915</v>
+        <v>0.3826314071172054</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7241817072048653</v>
+        <v>0.6133632875616863</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>27143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5961045016706532</v>
+        <v>0.3816734299333388</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00010921</v>
+        <v>0.00042002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7238442561112237</v>
+        <v>0.613023265159146</v>
       </c>
       <c r="J4" t="n">
-        <v>6.168000000000001e-05</v>
+        <v>0.00017377</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>27148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5964070731190609</v>
+        <v>0.3967647862464936</v>
       </c>
       <c r="H5" t="n">
-        <v>9.301000000000001e-05</v>
+        <v>0.01457838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7239850558859688</v>
+        <v>0.6186453670887366</v>
       </c>
       <c r="J5" t="n">
-        <v>5.38e-05</v>
+        <v>0.00540602</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>27153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5957393213609505</v>
+        <v>0.3827079861736331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00010907</v>
+        <v>6.713e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7235688364100195</v>
+        <v>0.6134484606733994</v>
       </c>
       <c r="J6" t="n">
-        <v>4.503e-05</v>
+        <v>2.491e-05</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>27163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5958284752896492</v>
+        <v>0.398590763012266</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00036248</v>
+        <v>0.0143928</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7235903798321446</v>
+        <v>0.6194092845585955</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00022701</v>
+        <v>0.00534741</v>
       </c>
     </row>
   </sheetData>
